--- a/2016_VotingCH_Data.xlsx
+++ b/2016_VotingCH_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamellmejia/Desktop/UM Data Analytics BootCamp/Projects/Project 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamellmejia/Desktop/UM Data Analytics BootCamp/Projects/Project 1/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6337A9-63D0-5C40-81F1-4D7353221C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1487DB99-0D46-5A45-8F37-C9C4FA84ACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{FF8A7A06-A228-41D3-9463-98779EA21889}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FF8A7A06-A228-41D3-9463-98779EA21889}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Type of Household</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Reported Voted (thousands)</t>
+  </si>
+  <si>
+    <t>Total Citizen Population (thousands)</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -231,11 +234,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -265,6 +277,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,35 +615,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B89E469-E907-4B65-A451-ACB68DEE8F65}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="2" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -636,13 +654,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
+        <v>114350</v>
+      </c>
+      <c r="D2" s="1">
         <v>99595</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>79382</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -650,13 +671,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
+        <v>1503</v>
+      </c>
+      <c r="D3" s="1">
         <v>1230</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>820</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -664,13 +688,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
+        <v>1359</v>
+      </c>
+      <c r="D4" s="1">
         <v>1078</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -678,13 +705,16 @@
         <v>14</v>
       </c>
       <c r="C5" s="1">
+        <v>30089</v>
+      </c>
+      <c r="D5" s="1">
         <v>24561</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>16043</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -692,13 +722,16 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
+        <v>33101</v>
+      </c>
+      <c r="D6" s="1">
         <v>26603</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>14855</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -706,13 +739,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
+        <v>177865</v>
+      </c>
+      <c r="D7" s="1">
         <v>152285</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>111891</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -720,13 +756,16 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
+        <v>28808</v>
+      </c>
+      <c r="D8" s="1">
         <v>23716</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>17119</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -734,13 +773,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
+        <v>10283</v>
+      </c>
+      <c r="D9" s="1">
         <v>8252</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>5043</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -748,13 +790,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
+        <v>26662</v>
+      </c>
+      <c r="D10" s="1">
         <v>21661</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
         <v>12682</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -762,13 +807,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="1">
+        <v>26913</v>
+      </c>
+      <c r="D11" s="1">
         <v>21555</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>11560</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -776,13 +824,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="1">
+        <v>38283</v>
+      </c>
+      <c r="D12" s="1">
         <v>31868</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>20332</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -790,13 +841,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
+        <v>34327</v>
+      </c>
+      <c r="D13" s="1">
         <v>29228</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>20662</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -804,13 +858,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="1">
+        <v>38301</v>
+      </c>
+      <c r="D14" s="1">
         <v>32683</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>25012</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -818,13 +875,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="1">
+        <v>39242</v>
+      </c>
+      <c r="D15" s="1">
         <v>33774</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>26657</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -832,9 +892,12 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
+        <v>46993</v>
+      </c>
+      <c r="D16" s="1">
         <v>41110</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>33314</v>
       </c>
     </row>
